--- a/data_year/zb/价格指数/城市居民消费价格分类指数(上年=100)(-2015)/医疗保健和个人用品类城市居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/城市居民消费价格分类指数(上年=100)(-2015)/医疗保健和个人用品类城市居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,672 +498,258 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>109</v>
+      </c>
       <c r="E2" t="n">
-        <v>105.3</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>111.2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100.8</v>
+      </c>
       <c r="J2" t="n">
-        <v>100.1</v>
+        <v>103.2</v>
       </c>
       <c r="K2" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
+        <v>104.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100.4</v>
+      </c>
       <c r="M2" t="n">
-        <v>96.7</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.1</v>
+        <v>104.82702932</v>
       </c>
       <c r="C3" t="n">
-        <v>99.40000000000001</v>
+        <v>104.41479338</v>
       </c>
       <c r="D3" t="n">
-        <v>96.90000000000001</v>
+        <v>108.87911759</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1</v>
+        <v>111.67371753</v>
       </c>
       <c r="F3" t="n">
-        <v>96.8</v>
+        <v>104.49988059</v>
       </c>
       <c r="G3" t="n">
-        <v>100.3</v>
+        <v>101.13554241</v>
       </c>
       <c r="H3" t="n">
-        <v>99.3</v>
+        <v>103.38665433</v>
       </c>
       <c r="I3" t="n">
-        <v>113</v>
+        <v>100.52950471</v>
       </c>
       <c r="J3" t="n">
-        <v>99.2</v>
+        <v>102.87179199</v>
       </c>
       <c r="K3" t="n">
-        <v>98.90000000000001</v>
+        <v>102.4513843</v>
       </c>
       <c r="L3" t="n">
-        <v>97.59999999999999</v>
+        <v>101.89587981</v>
       </c>
       <c r="M3" t="n">
-        <v>94.3</v>
+        <v>99.56660168000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.1</v>
+        <v>105.2013262</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5</v>
+        <v>102.50261513</v>
       </c>
       <c r="D4" t="n">
-        <v>99.3</v>
+        <v>99.88883206</v>
       </c>
       <c r="E4" t="n">
-        <v>96.3</v>
+        <v>105.00864792</v>
       </c>
       <c r="F4" t="n">
-        <v>96.7</v>
+        <v>102.49072027</v>
       </c>
       <c r="G4" t="n">
-        <v>100.1</v>
+        <v>101.29585345</v>
       </c>
       <c r="H4" t="n">
-        <v>98</v>
+        <v>101.95098374</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1</v>
+        <v>100.58824453</v>
       </c>
       <c r="J4" t="n">
-        <v>97.40000000000001</v>
+        <v>101.67059447</v>
       </c>
       <c r="K4" t="n">
-        <v>97.3</v>
+        <v>102.69227987</v>
       </c>
       <c r="L4" t="n">
-        <v>97</v>
+        <v>103.66617861</v>
       </c>
       <c r="M4" t="n">
-        <v>94.09999999999999</v>
+        <v>100.22700052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.2092</v>
+        <v>105.02546069</v>
       </c>
       <c r="C5" t="n">
-        <v>99.9897</v>
+        <v>100.7</v>
       </c>
       <c r="D5" t="n">
-        <v>104.4548</v>
+        <v>95.03983393999999</v>
       </c>
       <c r="E5" t="n">
-        <v>103.9737</v>
+        <v>103.32304395</v>
       </c>
       <c r="F5" t="n">
-        <v>98.2124</v>
+        <v>102.20272802</v>
       </c>
       <c r="G5" t="n">
-        <v>99.72069999999999</v>
+        <v>100.99242318</v>
       </c>
       <c r="H5" t="n">
-        <v>99.82850000000001</v>
+        <v>101.2</v>
       </c>
       <c r="I5" t="n">
-        <v>107.575</v>
+        <v>100.76447049</v>
       </c>
       <c r="J5" t="n">
-        <v>99.7594</v>
+        <v>101.4</v>
       </c>
       <c r="K5" t="n">
-        <v>100.8288</v>
+        <v>100.87419385</v>
       </c>
       <c r="L5" t="n">
-        <v>96.29089999999999</v>
+        <v>101.97745767</v>
       </c>
       <c r="M5" t="n">
-        <v>94.1292</v>
+        <v>100.38840126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.2585</v>
+        <v>103.98108014</v>
       </c>
       <c r="C6" t="n">
-        <v>101.0443</v>
+        <v>100.2</v>
       </c>
       <c r="D6" t="n">
-        <v>106.0599</v>
+        <v>95.10951701</v>
       </c>
       <c r="E6" t="n">
-        <v>98.8631</v>
+        <v>103.13990389</v>
       </c>
       <c r="F6" t="n">
-        <v>99.20180000000001</v>
+        <v>104.00256456</v>
       </c>
       <c r="G6" t="n">
-        <v>98.7512</v>
+        <v>100.60536266</v>
       </c>
       <c r="H6" t="n">
-        <v>99.1776</v>
+        <v>101.2</v>
       </c>
       <c r="I6" t="n">
-        <v>103.6376</v>
+        <v>100.98705533</v>
       </c>
       <c r="J6" t="n">
-        <v>98.4259</v>
+        <v>101.7</v>
       </c>
       <c r="K6" t="n">
-        <v>103.2544</v>
+        <v>100.90387244</v>
       </c>
       <c r="L6" t="n">
-        <v>98.1908</v>
+        <v>100.90526553</v>
       </c>
       <c r="M6" t="n">
-        <v>95.262</v>
+        <v>100.50388823</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.3249</v>
+        <v>104.08869472</v>
       </c>
       <c r="C7" t="n">
-        <v>100.5518</v>
+        <v>100.31433277</v>
       </c>
       <c r="D7" t="n">
-        <v>101.9321</v>
+        <v>95.14642099</v>
       </c>
       <c r="E7" t="n">
-        <v>96.7514</v>
+        <v>102.97525987</v>
       </c>
       <c r="F7" t="n">
-        <v>100.0182</v>
+        <v>103.87864027</v>
       </c>
       <c r="G7" t="n">
-        <v>99.19970000000001</v>
+        <v>100.23937784</v>
       </c>
       <c r="H7" t="n">
-        <v>99.6203</v>
+        <v>101.85268753</v>
       </c>
       <c r="I7" t="n">
-        <v>104.8402</v>
+        <v>102.45141266</v>
       </c>
       <c r="J7" t="n">
-        <v>99.2363</v>
+        <v>102.62493479</v>
       </c>
       <c r="K7" t="n">
-        <v>97.7033</v>
+        <v>101.1562462</v>
       </c>
       <c r="L7" t="n">
-        <v>99.50069999999999</v>
+        <v>100.87865542</v>
       </c>
       <c r="M7" t="n">
-        <v>97.72880000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>102.22234009</v>
-      </c>
-      <c r="C8" t="n">
-        <v>103.02838203</v>
-      </c>
-      <c r="D8" t="n">
-        <v>111.53443359</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100.02455034</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.43412788</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.58964168</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100.90760322</v>
-      </c>
-      <c r="I8" t="n">
-        <v>102.59789772</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100.00474006</v>
-      </c>
-      <c r="K8" t="n">
-        <v>97.56940831</v>
-      </c>
-      <c r="L8" t="n">
-        <v>99.8451333</v>
-      </c>
-      <c r="M8" t="n">
-        <v>98.22707281</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>102.3445549</v>
-      </c>
-      <c r="C9" t="n">
-        <v>101.83586365</v>
-      </c>
-      <c r="D9" t="n">
-        <v>104.79814198</v>
-      </c>
-      <c r="E9" t="n">
-        <v>107.47585021</v>
-      </c>
-      <c r="F9" t="n">
-        <v>101.13068953</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100.01306598</v>
-      </c>
-      <c r="H9" t="n">
-        <v>101.74680006</v>
-      </c>
-      <c r="I9" t="n">
-        <v>101.43781456</v>
-      </c>
-      <c r="J9" t="n">
-        <v>101.71111079</v>
-      </c>
-      <c r="K9" t="n">
-        <v>98.36460124</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100.21367098</v>
-      </c>
-      <c r="M9" t="n">
-        <v>98.91944875999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>104.28216577</v>
-      </c>
-      <c r="C10" t="n">
-        <v>104.16945371</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110.25230624</v>
-      </c>
-      <c r="E10" t="n">
-        <v>106.4646149</v>
-      </c>
-      <c r="F10" t="n">
-        <v>102.01003477</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100.57098462</v>
-      </c>
-      <c r="H10" t="n">
-        <v>102.76049999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>100.12160715</v>
-      </c>
-      <c r="J10" t="n">
-        <v>102.11528464</v>
-      </c>
-      <c r="K10" t="n">
-        <v>100.30871353</v>
-      </c>
-      <c r="L10" t="n">
-        <v>101.596932</v>
-      </c>
-      <c r="M10" t="n">
-        <v>101.05990428</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>103.37896064</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100.50709935</v>
-      </c>
-      <c r="D11" t="n">
-        <v>95.79428414</v>
-      </c>
-      <c r="E11" t="n">
-        <v>103.01801637</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.98800746</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100.75986225</v>
-      </c>
-      <c r="H11" t="n">
-        <v>101.06839236</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100.85379612</v>
-      </c>
-      <c r="J11" t="n">
-        <v>101.33298746</v>
-      </c>
-      <c r="K11" t="n">
-        <v>101.85633781</v>
-      </c>
-      <c r="L11" t="n">
-        <v>102.1614511</v>
-      </c>
-      <c r="M11" t="n">
-        <v>100.79932405</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>103</v>
-      </c>
-      <c r="D12" t="n">
-        <v>109</v>
-      </c>
-      <c r="E12" t="n">
-        <v>111.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.6</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>104.3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>100.9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>104.82702932</v>
-      </c>
-      <c r="C13" t="n">
-        <v>104.41479338</v>
-      </c>
-      <c r="D13" t="n">
-        <v>108.87911759</v>
-      </c>
-      <c r="E13" t="n">
-        <v>111.67371753</v>
-      </c>
-      <c r="F13" t="n">
-        <v>104.49988059</v>
-      </c>
-      <c r="G13" t="n">
-        <v>101.13554241</v>
-      </c>
-      <c r="H13" t="n">
-        <v>103.38665433</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.52950471</v>
-      </c>
-      <c r="J13" t="n">
-        <v>102.87179199</v>
-      </c>
-      <c r="K13" t="n">
-        <v>102.4513843</v>
-      </c>
-      <c r="L13" t="n">
-        <v>101.89587981</v>
-      </c>
-      <c r="M13" t="n">
-        <v>99.56660168000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>105.2013262</v>
-      </c>
-      <c r="C14" t="n">
-        <v>102.50261513</v>
-      </c>
-      <c r="D14" t="n">
-        <v>99.88883206</v>
-      </c>
-      <c r="E14" t="n">
-        <v>105.00864792</v>
-      </c>
-      <c r="F14" t="n">
-        <v>102.49072027</v>
-      </c>
-      <c r="G14" t="n">
-        <v>101.29585345</v>
-      </c>
-      <c r="H14" t="n">
-        <v>101.95098374</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.58824453</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.67059447</v>
-      </c>
-      <c r="K14" t="n">
-        <v>102.69227987</v>
-      </c>
-      <c r="L14" t="n">
-        <v>103.66617861</v>
-      </c>
-      <c r="M14" t="n">
-        <v>100.22700052</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>105.02546069</v>
-      </c>
-      <c r="C15" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>95.03983393999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>103.32304395</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.20272802</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100.99242318</v>
-      </c>
-      <c r="H15" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>100.76447049</v>
-      </c>
-      <c r="J15" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100.87419385</v>
-      </c>
-      <c r="L15" t="n">
-        <v>101.97745767</v>
-      </c>
-      <c r="M15" t="n">
-        <v>100.38840126</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>103.98108014</v>
-      </c>
-      <c r="C16" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95.10951701</v>
-      </c>
-      <c r="E16" t="n">
-        <v>103.13990389</v>
-      </c>
-      <c r="F16" t="n">
-        <v>104.00256456</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.60536266</v>
-      </c>
-      <c r="H16" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100.98705533</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100.90387244</v>
-      </c>
-      <c r="L16" t="n">
-        <v>100.90526553</v>
-      </c>
-      <c r="M16" t="n">
-        <v>100.50388823</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>104.08869472</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100.31433277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>95.14642099</v>
-      </c>
-      <c r="E17" t="n">
-        <v>102.97525987</v>
-      </c>
-      <c r="F17" t="n">
-        <v>103.87864027</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100.23937784</v>
-      </c>
-      <c r="H17" t="n">
-        <v>101.85268753</v>
-      </c>
-      <c r="I17" t="n">
-        <v>102.45141266</v>
-      </c>
-      <c r="J17" t="n">
-        <v>102.62493479</v>
-      </c>
-      <c r="K17" t="n">
-        <v>101.1562462</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.87865542</v>
-      </c>
-      <c r="M17" t="n">
         <v>102.14336402</v>
       </c>
     </row>
